--- a/data/case1/2/P_device_14.xlsx
+++ b/data/case1/2/P_device_14.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.012091369838410833</v>
+        <v>0.026376384050262908</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.012091370621661044</v>
+        <v>-0.026376384914844619</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.04202909558756359</v>
+        <v>0.031420418236898985</v>
       </c>
       <c r="B2" s="0">
-        <v>0.042029094811933169</v>
+        <v>-0.031420419119599613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.030569649656841179</v>
+        <v>-0.039302721618064994</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.030569650400653108</v>
+        <v>0.039302720751149878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.045767753970350322</v>
+        <v>-0.042816883914807417</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.045767754733274164</v>
+        <v>0.042816883024711316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.018828010249865176</v>
+        <v>0.0018318553879644209</v>
       </c>
       <c r="B5" s="0">
-        <v>0.018828009469927312</v>
+        <v>-0.001831856270573757</v>
       </c>
     </row>
   </sheetData>
